--- a/results/FrequencyTables/26775808_sgRNA-12.xlsx
+++ b/results/FrequencyTables/26775808_sgRNA-12.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00373831775700935</v>
       </c>
       <c r="C2">
-        <v>0.04</v>
+        <v>0.0205607476635514</v>
       </c>
       <c r="D2">
-        <v>0.91</v>
+        <v>0.923364485981308</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0.0598130841121495</v>
       </c>
       <c r="F2">
-        <v>0.97</v>
+        <v>0.934579439252336</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0.0560747663551402</v>
       </c>
       <c r="H2">
-        <v>0.04</v>
+        <v>0.0168224299065421</v>
       </c>
       <c r="I2">
-        <v>0.06</v>
+        <v>0.364485981308411</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0.0186915887850467</v>
       </c>
       <c r="K2">
-        <v>0.02</v>
+        <v>0.0168224299065421</v>
       </c>
       <c r="L2">
-        <v>0.01</v>
+        <v>0.00373831775700935</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.011214953271028</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.998130841121495</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00560747663551402</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00934579439252336</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.99</v>
+        <v>0.951401869158878</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.04</v>
+        <v>0.011214953271028</v>
       </c>
       <c r="U2">
-        <v>0.01</v>
+        <v>0.00186915887850467</v>
       </c>
       <c r="V2">
-        <v>0.02</v>
+        <v>0.00934579439252336</v>
       </c>
       <c r="W2">
-        <v>0.28</v>
+        <v>0.0897196261682243</v>
       </c>
       <c r="X2">
-        <v>0.01</v>
+        <v>0.0411214953271028</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,37 +539,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>0.0691588785046729</v>
       </c>
       <c r="C3">
-        <v>0.94</v>
+        <v>0.902803738317757</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0.0504672897196262</v>
       </c>
       <c r="E3">
-        <v>0.05</v>
+        <v>0.0130841121495327</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00934579439252336</v>
       </c>
       <c r="G3">
-        <v>0.92</v>
+        <v>0.91588785046729</v>
       </c>
       <c r="H3">
-        <v>0.76</v>
+        <v>0.906542056074766</v>
       </c>
       <c r="I3">
-        <v>0.94</v>
+        <v>0.624299065420561</v>
       </c>
       <c r="J3">
-        <v>0.05</v>
+        <v>0.0728971962616822</v>
       </c>
       <c r="K3">
-        <v>0.02</v>
+        <v>0.0242990654205607</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00560747663551402</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -581,31 +581,31 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.05</v>
+        <v>0.0130841121495327</v>
       </c>
       <c r="Q3">
-        <v>0.8</v>
+        <v>0.94392523364486</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0411214953271028</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.21</v>
+        <v>0.0598130841121495</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01</v>
+        <v>0.00747663551401869</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00186915887850467</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -616,70 +616,70 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00186915887850467</v>
       </c>
       <c r="D4">
-        <v>0.04</v>
+        <v>0.0168224299065421</v>
       </c>
       <c r="E4">
-        <v>0.9</v>
+        <v>0.914018691588785</v>
       </c>
       <c r="F4">
-        <v>0.02</v>
+        <v>0.0542056074766355</v>
       </c>
       <c r="G4">
-        <v>0.04</v>
+        <v>0.00934579439252336</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00186915887850467</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03</v>
+        <v>0.00747663551401869</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>0.177570093457944</v>
       </c>
       <c r="M4">
-        <v>0.05</v>
+        <v>0.0149532710280374</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00186915887850467</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.994392523364486</v>
       </c>
       <c r="P4">
-        <v>0.01</v>
+        <v>0.00373831775700935</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01</v>
+        <v>0.00373831775700935</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.011214953271028</v>
       </c>
       <c r="U4">
-        <v>0.99</v>
+        <v>0.998130841121495</v>
       </c>
       <c r="V4">
-        <v>0.03</v>
+        <v>0.00934579439252336</v>
       </c>
       <c r="W4">
-        <v>0.72</v>
+        <v>0.906542056074766</v>
       </c>
       <c r="X4">
-        <v>0.99</v>
+        <v>0.955140186915888</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,40 +687,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.95</v>
+        <v>0.927102803738318</v>
       </c>
       <c r="C5">
-        <v>0.02</v>
+        <v>0.0728971962616822</v>
       </c>
       <c r="D5">
-        <v>0.04</v>
+        <v>0.00934579439252336</v>
       </c>
       <c r="E5">
-        <v>0.04</v>
+        <v>0.0130841121495327</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>0.00186915887850467</v>
       </c>
       <c r="G5">
-        <v>0.03</v>
+        <v>0.0186915887850467</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>0.0747663551401869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.011214953271028</v>
       </c>
       <c r="J5">
-        <v>0.91</v>
+        <v>0.900934579439252</v>
       </c>
       <c r="K5">
-        <v>0.96</v>
+        <v>0.958878504672897</v>
       </c>
       <c r="L5">
-        <v>0.98</v>
+        <v>0.813084112149533</v>
       </c>
       <c r="M5">
-        <v>0.91</v>
+        <v>0.973831775700935</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -729,31 +729,31 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.94</v>
+        <v>0.973831775700935</v>
       </c>
       <c r="Q5">
-        <v>0.2</v>
+        <v>0.0560747663551402</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00373831775700935</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.75</v>
+        <v>0.917757009345794</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.94</v>
+        <v>0.973831775700935</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00186915887850467</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00186915887850467</v>
       </c>
     </row>
   </sheetData>
